--- a/algos-leaderboard.xlsx
+++ b/algos-leaderboard.xlsx
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Сообщение IDE</t>
+  </si>
+  <si>
+    <t>Автомат</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA233"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A32" zoomScale="35" zoomScaleNormal="35">
+    <sheetView workbookViewId="0" topLeftCell="A29" zoomScale="35" zoomScaleNormal="35">
       <selection activeCell="C32" sqref="C32" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -2935,9 +2938,8 @@
       <c r="B31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="10">
-        <f>0</f>
-        <v>0</v>
+      <c r="C31" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D31" s="21">
         <f>$B$44</f>
